--- a/WidthDepth/DepthWidth_Station02_2022-06-10_1200.xlsx
+++ b/WidthDepth/DepthWidth_Station02_2022-06-10_1200.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Metabolism/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/WidthDepth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E43FECA-D0E0-3E46-9B12-D87ECCC1272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{4E43FECA-D0E0-3E46-9B12-D87ECCC1272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9744219D-A9ED-488F-A014-9337C447E5E1}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{99CF4A22-BFBE-8A41-88DC-2C7C31DBC243}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{99CF4A22-BFBE-8A41-88DC-2C7C31DBC243}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">Time </t>
   </si>
@@ -51,6 +52,12 @@
   </si>
   <si>
     <t>depth (cm)</t>
+  </si>
+  <si>
+    <t>Average depth</t>
+  </si>
+  <si>
+    <t>Thalwag depth</t>
   </si>
 </sst>
 </file>
@@ -404,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22A483C-20B0-0B4A-BDA1-034B13D76A68}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +427,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -428,7 +435,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -441,8 +448,20 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -455,8 +474,24 @@
       <c r="D5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f>A5</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>B5</f>
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I5">
+        <f>D7</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -470,7 +505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -484,7 +519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -498,7 +533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -512,7 +547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -525,8 +560,24 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f>A10</f>
+        <v>0.9</v>
+      </c>
+      <c r="G10">
+        <f>B10</f>
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(D10:D14)</f>
+        <v>3.8</v>
+      </c>
+      <c r="I10">
+        <f>D12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -540,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.9</v>
       </c>
@@ -554,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.9</v>
       </c>
@@ -568,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.9</v>
       </c>
@@ -582,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.8</v>
       </c>
@@ -595,8 +646,24 @@
       <c r="D15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f>A15</f>
+        <v>1.8</v>
+      </c>
+      <c r="G15">
+        <f>B15</f>
+        <v>55</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(D15:D19)</f>
+        <v>14.8</v>
+      </c>
+      <c r="I15">
+        <f>D17</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.8</v>
       </c>
@@ -610,7 +677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.8</v>
       </c>
@@ -624,7 +691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.8</v>
       </c>
@@ -638,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.8</v>
       </c>
@@ -652,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2.7</v>
       </c>
@@ -665,8 +732,24 @@
       <c r="D20">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>A20</f>
+        <v>2.7</v>
+      </c>
+      <c r="G20">
+        <f>B20</f>
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGE(D20:D24)</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="I20">
+        <f>D22</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2.7</v>
       </c>
@@ -680,7 +763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2.7</v>
       </c>
@@ -694,7 +777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2.7</v>
       </c>
@@ -708,7 +791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2.7</v>
       </c>
@@ -722,7 +805,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3.6</v>
       </c>
@@ -735,8 +818,24 @@
       <c r="D25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f>A25</f>
+        <v>3.6</v>
+      </c>
+      <c r="G25">
+        <f>B25</f>
+        <v>75</v>
+      </c>
+      <c r="H25">
+        <f>AVERAGE(D25:D29)</f>
+        <v>39.4</v>
+      </c>
+      <c r="I25">
+        <f>D27</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3.6</v>
       </c>
@@ -750,7 +849,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3.6</v>
       </c>
@@ -764,7 +863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3.6</v>
       </c>
@@ -778,7 +877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3.6</v>
       </c>
@@ -792,7 +891,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4.5</v>
       </c>
@@ -805,8 +904,24 @@
       <c r="D30">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f>A30</f>
+        <v>4.5</v>
+      </c>
+      <c r="G30">
+        <f>B30</f>
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <f>AVERAGE(D30:D34)</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I30">
+        <f>D32</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4.5</v>
       </c>
@@ -820,7 +935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4.5</v>
       </c>
@@ -834,7 +949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4.5</v>
       </c>
@@ -848,7 +963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4.5</v>
       </c>
@@ -862,7 +977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5.4</v>
       </c>
@@ -875,8 +990,24 @@
       <c r="D35">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f>A35</f>
+        <v>5.4</v>
+      </c>
+      <c r="G35">
+        <f>B35</f>
+        <v>65</v>
+      </c>
+      <c r="H35">
+        <f>AVERAGE(D35:D39)</f>
+        <v>26.2</v>
+      </c>
+      <c r="I35">
+        <f>D37</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>5.4</v>
       </c>
@@ -890,7 +1021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>5.4</v>
       </c>
@@ -904,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>5.4</v>
       </c>
@@ -918,7 +1049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>5.4</v>
       </c>
@@ -932,7 +1063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6.3</v>
       </c>
@@ -945,8 +1076,24 @@
       <c r="D40">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f>A40</f>
+        <v>6.3</v>
+      </c>
+      <c r="G40">
+        <f>B40</f>
+        <v>60</v>
+      </c>
+      <c r="H40">
+        <f>AVERAGE(D40:D44)</f>
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <f>D42</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>6.3</v>
       </c>
@@ -960,7 +1107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>6.3</v>
       </c>
@@ -974,7 +1121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6.3</v>
       </c>
@@ -988,7 +1135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6.3</v>
       </c>
